--- a/contractors.xlsx
+++ b/contractors.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -23,9 +22,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>NAICS Code</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -63,6 +59,9 @@
   </si>
   <si>
     <t>Example-4</t>
+  </si>
+  <si>
+    <t>NAICS_Code</t>
   </si>
 </sst>
 </file>
@@ -441,7 +440,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,66 +458,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>541330</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>541611</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>541330</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>541512</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
